--- a/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
+++ b/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024\WEE_TOC\1.CPPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\Batch7_Apr2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F01A3-731D-465C-9BBF-6BCA7FFBB536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9FDE2-04CE-4438-ACD2-EB56B15E7E0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1-schedule" sheetId="14" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -917,24 +917,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
@@ -944,14 +992,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -965,44 +1013,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,54 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,49 +1398,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B64D2-6620-934C-9EB8-190715BE0096}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="118" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+    <row r="2" spans="2:3" ht="15.6">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="2:3" ht="15.75">
+      <c r="B3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="2:3" ht="15.75">
+      <c r="B4" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="2:3" ht="15.75">
+      <c r="B5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="2:3" ht="15.6">
+      <c r="B6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="29">
         <f>SUM(C3:C5)</f>
         <v>10</v>
       </c>
@@ -1464,33 +1464,33 @@
       <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="17.875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.875" customWidth="1"/>
-    <col min="8" max="8" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.90625" customWidth="1"/>
+    <col min="8" max="8" width="39.90625" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1500,20 +1500,20 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
@@ -1524,191 +1524,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.9" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="53" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:9">
+      <c r="A6" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="34" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="34" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="34" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="34" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="44"/>
+      <c r="B10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="48" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="44"/>
+      <c r="B11" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="48" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="48"/>
+      <c r="B12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="43">
         <v>1.2</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="44"/>
+      <c r="B14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="34" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="43">
         <v>1.3</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="44"/>
       <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
@@ -1716,12 +1716,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="44"/>
       <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
@@ -1729,318 +1729,318 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="43">
         <v>1.4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="34" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="44"/>
+      <c r="B21" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="34" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="44"/>
+      <c r="B22" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.9" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="43">
         <v>1.5</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="34" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="44"/>
+      <c r="B25" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="34" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="44"/>
+      <c r="B26" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="34" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="20">
         <v>2</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+    <row r="29" spans="1:9" ht="15.6">
+      <c r="A29" s="43">
         <v>2.1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="34" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="34" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="44"/>
+      <c r="B31" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="34" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="48"/>
+      <c r="B32" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="41"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="34" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="44"/>
+      <c r="B34" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="34" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="34" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="48"/>
+      <c r="B36" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="34" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="44"/>
+      <c r="B38" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="34" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="44"/>
+      <c r="B39" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="34" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="48"/>
+      <c r="B40" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="45"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="43">
         <v>2.4</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="44"/>
       <c r="B42" s="21" t="s">
         <v>101</v>
       </c>
@@ -2048,12 +2048,12 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>102</v>
       </c>
@@ -2061,27 +2061,27 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="45"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="43">
         <v>2.5</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="44"/>
       <c r="B45" s="21" t="s">
         <v>104</v>
       </c>
@@ -2089,12 +2089,12 @@
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>105</v>
       </c>
@@ -2102,97 +2102,78 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="41"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="43">
         <v>2.6</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="45"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="34" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="41"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.9" customHeight="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="45"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="34" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="41"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="44"/>
+      <c r="B49" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="45"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="34" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="41"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="48"/>
+      <c r="B50" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:G27"/>
-    <mergeCell ref="H5:H27"/>
-    <mergeCell ref="I5:I27"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:F41"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:G50"/>
     <mergeCell ref="H28:H50"/>
@@ -2209,18 +2190,37 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:G27"/>
+    <mergeCell ref="H5:H27"/>
+    <mergeCell ref="I5:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2234,30 +2234,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE50847-F217-2647-8EA0-86629DDEAA58}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.375" customWidth="1"/>
-    <col min="3" max="3" width="70.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.875" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.36328125" customWidth="1"/>
+    <col min="3" max="3" width="70.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2267,10 +2267,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2287,555 +2287,555 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.9" customHeight="1">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="73">
         <v>1.5</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+    <row r="6" spans="1:7" ht="15.9" customHeight="1">
+      <c r="A6" s="69">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="74"/>
       <c r="G6" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="69"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="74"/>
       <c r="G7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="69"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="C8" s="64"/>
+      <c r="D8" s="74"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="69">
         <v>1.2</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="74"/>
       <c r="G9" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="69"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="74"/>
       <c r="G10" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="69"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" s="69"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="74"/>
       <c r="G12" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="12">
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="75"/>
       <c r="G13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.9" customHeight="1">
       <c r="A14" s="17">
         <v>2.1</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="73">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" s="60">
         <v>2.2000000000000002</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="74"/>
       <c r="G15" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="61"/>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="74"/>
       <c r="G16" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="61"/>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="58"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="61"/>
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="74"/>
       <c r="G18" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="61"/>
       <c r="B19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="61"/>
       <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
+      <c r="A21" s="62"/>
       <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="74"/>
       <c r="G21" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="74"/>
       <c r="G22" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="17">
         <v>2.4</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="58"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="65"/>
+      <c r="D23" s="74"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="7">
         <v>3</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="74"/>
       <c r="G24" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="66">
         <v>3.1</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="74"/>
       <c r="G25" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="67"/>
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="75"/>
       <c r="G26" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="7">
         <v>4</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61">
+    <row r="28" spans="1:7" ht="15.6">
+      <c r="A28" s="69">
         <v>4.0999999999999996</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="74"/>
       <c r="G28" s="26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="69"/>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="74"/>
       <c r="G29" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="69"/>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="74"/>
       <c r="G30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="69"/>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="58"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="74"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.9" customHeight="1">
+      <c r="A32" s="69"/>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="74"/>
       <c r="G32" s="26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33" s="69"/>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="74"/>
       <c r="G33" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="61">
+    <row r="34" spans="1:7" ht="15.6">
+      <c r="A34" s="69">
         <v>4.2</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="74"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+    <row r="35" spans="1:7" ht="15.6">
+      <c r="A35" s="69"/>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="74"/>
       <c r="G35" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+    <row r="36" spans="1:7" ht="15.6">
+      <c r="A36" s="69"/>
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="74"/>
       <c r="G36" s="26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="69"/>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="74"/>
       <c r="G37" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="7">
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="58"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="61">
+      <c r="C38" s="64"/>
+      <c r="D38" s="74"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6">
+      <c r="A39" s="69">
         <v>5.0999999999999996</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="74"/>
       <c r="G39" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="69"/>
       <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="74"/>
       <c r="G40" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="69"/>
       <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="59"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="65"/>
+      <c r="D41" s="75"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="7">
         <v>6</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="71">
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="61">
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="69">
         <v>6.1</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
       <c r="G43" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="69"/>
       <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6">
+      <c r="A45" s="69"/>
       <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
       <c r="G45" s="26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
+    <row r="46" spans="1:7">
+      <c r="A46" s="69">
         <v>6.2</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
       <c r="G46" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="69"/>
       <c r="B47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
       <c r="G47" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="69"/>
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
       <c r="G48" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="61">
+    <row r="49" spans="1:7">
+      <c r="A49" s="69">
         <v>6.3</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6">
+      <c r="A50" s="69"/>
       <c r="B50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
       <c r="G50" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+    <row r="51" spans="1:7" ht="15.9" customHeight="1">
+      <c r="A51" s="69"/>
       <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
       <c r="G51" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="6">
         <v>6.4</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
       <c r="G52" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="D53" s="1">
         <f>SUM(D5:D52)</f>
         <v>6</v>
@@ -2843,18 +2843,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="C5:C13"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="C27:C41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D42:D52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
@@ -2863,6 +2851,18 @@
     <mergeCell ref="D5:D13"/>
     <mergeCell ref="D14:D26"/>
     <mergeCell ref="D27:D41"/>
+    <mergeCell ref="C27:C41"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="C5:C13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C14:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
+++ b/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\Batch7_Apr2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9FDE2-04CE-4438-ACD2-EB56B15E7E0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE099EF4-05B3-488D-84EB-88033DD5BA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -923,6 +923,75 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -932,15 +1001,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,65 +1013,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,15 +1052,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,27 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1412,7 +1412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75">
+    <row r="3" spans="2:3">
       <c r="B3" s="28" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75">
+    <row r="4" spans="2:3">
       <c r="B4" s="28" t="s">
         <v>149</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75">
+    <row r="5" spans="2:3">
       <c r="B5" s="28" t="s">
         <v>57</v>
       </c>
@@ -1479,16 +1479,16 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="18" t="s">
@@ -1507,13 +1507,13 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
@@ -1528,187 +1528,187 @@
       <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="43">
+      <c r="A6" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="44"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="44"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="44"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="44"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="41"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="43">
+      <c r="A13" s="30">
         <v>1.2</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="41"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="44"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43">
+      <c r="A17" s="30">
         <v>1.3</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="44"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
@@ -1716,12 +1716,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="41"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="44"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
@@ -1729,318 +1729,318 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="41"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="43">
+      <c r="A20" s="30">
         <v>1.4</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="41"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="44"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="41"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="15.9" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="41"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="43">
+      <c r="A24" s="30">
         <v>1.5</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="41"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="44"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="41"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="42"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="20">
         <v>2</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="56" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6">
-      <c r="A29" s="43">
+      <c r="A29" s="30">
         <v>2.1</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="41"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="41"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="44"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="41"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="41"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="43">
+      <c r="A33" s="30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="41"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="44"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="41"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="44"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="41"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="41"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="43">
+      <c r="A37" s="30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="41"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="44"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="41"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="44"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="41"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="48"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="41"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="43">
+      <c r="A41" s="30">
         <v>2.4</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="41"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="44"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="21" t="s">
         <v>101</v>
       </c>
@@ -2048,12 +2048,12 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="41"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="48"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="21" t="s">
         <v>102</v>
       </c>
@@ -2061,27 +2061,27 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="41"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="43">
+      <c r="A44" s="30">
         <v>2.5</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="41"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="44"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="21" t="s">
         <v>104</v>
       </c>
@@ -2089,12 +2089,12 @@
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="41"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="48"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="21" t="s">
         <v>105</v>
       </c>
@@ -2102,78 +2102,97 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="41"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="47"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="43">
+      <c r="A47" s="30">
         <v>2.6</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="41"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="47"/>
     </row>
     <row r="48" spans="1:9" ht="15.9" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="50" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="41"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="47"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="44"/>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="41"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="47"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="42"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:G27"/>
+    <mergeCell ref="H5:H27"/>
+    <mergeCell ref="I5:I27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:G50"/>
     <mergeCell ref="H28:H50"/>
@@ -2190,37 +2209,18 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:G27"/>
-    <mergeCell ref="H5:H27"/>
-    <mergeCell ref="I5:I27"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE50847-F217-2647-8EA0-86629DDEAA58}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15"/>
@@ -2251,11 +2251,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="3" t="s">
@@ -2294,10 +2294,10 @@
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="62">
         <v>1.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -2305,76 +2305,76 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A6" s="69">
+      <c r="A6" s="61">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="63"/>
       <c r="G6" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="63"/>
       <c r="G7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="69"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:7" ht="15.6">
-      <c r="A9" s="69">
+      <c r="A9" s="61">
         <v>1.2</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="63"/>
       <c r="G9" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="69"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="63"/>
       <c r="G10" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="69"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="15.6">
-      <c r="A12" s="69"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="63"/>
       <c r="G12" s="26" t="s">
         <v>118</v>
       </c>
@@ -2386,8 +2386,8 @@
       <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="75"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="64"/>
       <c r="G13" t="s">
         <v>119</v>
       </c>
@@ -2399,82 +2399,82 @@
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="62">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6">
-      <c r="A15" s="60">
+      <c r="A15" s="70">
         <v>2.2000000000000002</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="63"/>
       <c r="G15" s="26" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="61"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="63"/>
       <c r="G16" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="61"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="15.6">
-      <c r="A18" s="61"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="63"/>
       <c r="G18" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="63"/>
       <c r="G19" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="63"/>
     </row>
     <row r="21" spans="1:7" ht="15.6">
-      <c r="A21" s="62"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="63"/>
       <c r="G21" s="26" t="s">
         <v>145</v>
       </c>
@@ -2486,8 +2486,8 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="63"/>
       <c r="G22" s="27" t="s">
         <v>125</v>
       </c>
@@ -2499,8 +2499,8 @@
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="63"/>
     </row>
     <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="7">
@@ -2509,34 +2509,34 @@
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="63"/>
       <c r="G24" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="66">
+      <c r="A25" s="73">
         <v>3.1</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="63"/>
       <c r="G25" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="67"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="75"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="64"/>
       <c r="G26" s="27" t="s">
         <v>123</v>
       </c>
@@ -2548,118 +2548,118 @@
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6">
-      <c r="A28" s="69">
+      <c r="A28" s="61">
         <v>4.0999999999999996</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="63"/>
       <c r="G28" s="26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="69"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="63"/>
       <c r="G29" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="69"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="63"/>
       <c r="G30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="69"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="74"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A32" s="69"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="63"/>
       <c r="G32" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45">
-      <c r="A33" s="69"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="63"/>
       <c r="G33" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6">
-      <c r="A34" s="69">
+      <c r="A34" s="61">
         <v>4.2</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="63"/>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" s="69"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="63"/>
       <c r="G35" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6">
-      <c r="A36" s="69"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="74"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="63"/>
       <c r="G36" s="26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="69"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="63"/>
       <c r="G37" s="27" t="s">
         <v>120</v>
       </c>
@@ -2671,40 +2671,40 @@
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:7" ht="15.6">
-      <c r="A39" s="69">
+      <c r="A39" s="61">
         <v>5.0999999999999996</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="74"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="63"/>
       <c r="G39" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="69"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="74"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="63"/>
       <c r="G40" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="69"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="75"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="7">
@@ -2713,10 +2713,10 @@
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="69">
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
@@ -2724,100 +2724,100 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="69">
+      <c r="A43" s="61">
         <v>6.1</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
       <c r="G43" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="69"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
     </row>
     <row r="45" spans="1:7" ht="15.6">
-      <c r="A45" s="69"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
       <c r="G45" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="69">
+      <c r="A46" s="61">
         <v>6.2</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
       <c r="G46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="69"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
       <c r="G47" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="69"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
       <c r="G48" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="69">
+      <c r="A49" s="61">
         <v>6.3</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
     </row>
     <row r="50" spans="1:7" ht="15.6">
-      <c r="A50" s="69"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
       <c r="G50" s="26" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A51" s="69"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
       <c r="G51" s="26" t="s">
         <v>142</v>
       </c>
@@ -2829,8 +2829,8 @@
       <c r="B52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
       <c r="G52" s="27" t="s">
         <v>143</v>
       </c>
@@ -2843,6 +2843,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
@@ -2853,11 +2858,6 @@
     <mergeCell ref="D27:D41"/>
     <mergeCell ref="C27:C41"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D42:D52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="C5:C13"/>
     <mergeCell ref="A25:A26"/>

--- a/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
+++ b/CP_Platform_Solution_Java_v1.4-Phase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\Batch7_Apr2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE099EF4-05B3-488D-84EB-88033DD5BA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D69F2-FEEC-4721-96E9-2206F776B496}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -923,24 +923,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
@@ -950,14 +992,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -971,54 +1013,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,12 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,16 +1479,16 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="18" t="s">
@@ -1507,13 +1507,13 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
@@ -1528,187 +1528,187 @@
       <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="30">
+      <c r="A6" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="31"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="31"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="31"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="32"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="47"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="30">
+      <c r="A13" s="43">
         <v>1.2</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="47"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="31"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="47"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="31"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="47"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="30">
+      <c r="A17" s="43">
         <v>1.3</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="31"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
@@ -1716,12 +1716,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="31"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
@@ -1729,318 +1729,318 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="30">
+      <c r="A20" s="43">
         <v>1.4</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="47"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="31"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="47"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="31"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="47"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="15.9" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="47"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="30">
+      <c r="A24" s="43">
         <v>1.5</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="31"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="47"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="31"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="47"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="20">
         <v>2</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6">
-      <c r="A29" s="30">
+      <c r="A29" s="43">
         <v>2.1</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="31"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="47"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="31"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="47"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="32"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="47"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="30">
+      <c r="A33" s="43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="31"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="47"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="31"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="47"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="32"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="47"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="30">
+      <c r="A37" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="47"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="47"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="47"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="41"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="32"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="47"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="30">
+      <c r="A41" s="43">
         <v>2.4</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="47"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="41"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="31"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="21" t="s">
         <v>101</v>
       </c>
@@ -2048,12 +2048,12 @@
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="47"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="41"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="32"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>102</v>
       </c>
@@ -2061,27 +2061,27 @@
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="47"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="30">
+      <c r="A44" s="43">
         <v>2.5</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="47"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="31"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="21" t="s">
         <v>104</v>
       </c>
@@ -2089,12 +2089,12 @@
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="47"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="41"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="32"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>105</v>
       </c>
@@ -2102,97 +2102,78 @@
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="47"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="41"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="30">
+      <c r="A47" s="43">
         <v>2.6</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="47"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="41"/>
     </row>
     <row r="48" spans="1:9" ht="15.9" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="47"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="41"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="31"/>
-      <c r="B49" s="36" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="47"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="32"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="48"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:G27"/>
-    <mergeCell ref="H5:H27"/>
-    <mergeCell ref="I5:I27"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:F41"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:G50"/>
     <mergeCell ref="H28:H50"/>
@@ -2209,18 +2190,37 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:G27"/>
+    <mergeCell ref="H5:H27"/>
+    <mergeCell ref="I5:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE50847-F217-2647-8EA0-86629DDEAA58}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15"/>
@@ -2251,11 +2251,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.6">
       <c r="A2" s="3" t="s">
@@ -2294,10 +2294,10 @@
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <v>1.5</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -2305,76 +2305,76 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A6" s="61">
+      <c r="A6" s="62">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="65"/>
       <c r="G6" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="65"/>
       <c r="G7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" ht="15.6">
-      <c r="A9" s="61">
+      <c r="A9" s="62">
         <v>1.2</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="65"/>
       <c r="G9" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="63"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="65"/>
       <c r="G10" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:7" ht="15.6">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="65"/>
       <c r="G12" s="26" t="s">
         <v>118</v>
       </c>
@@ -2386,8 +2386,8 @@
       <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="66"/>
       <c r="G13" t="s">
         <v>119</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="C14" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <v>1.5</v>
       </c>
     </row>
@@ -2413,8 +2413,8 @@
       <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="65"/>
       <c r="G15" s="26" t="s">
         <v>134</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="63"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="65"/>
       <c r="G16" s="27" t="s">
         <v>133</v>
       </c>
@@ -2435,16 +2435,16 @@
       <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="63"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="71"/>
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="65"/>
       <c r="G18" s="26" t="s">
         <v>144</v>
       </c>
@@ -2454,8 +2454,8 @@
       <c r="B19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="65"/>
       <c r="G19" s="27" t="s">
         <v>124</v>
       </c>
@@ -2465,16 +2465,16 @@
       <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="72"/>
       <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="65"/>
       <c r="G21" s="26" t="s">
         <v>145</v>
       </c>
@@ -2486,8 +2486,8 @@
       <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="65"/>
       <c r="G22" s="27" t="s">
         <v>125</v>
       </c>
@@ -2499,8 +2499,8 @@
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="7">
@@ -2512,7 +2512,7 @@
       <c r="C24" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="65"/>
       <c r="G24" s="26" t="s">
         <v>146</v>
       </c>
@@ -2524,8 +2524,8 @@
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="65"/>
       <c r="G25" s="27" t="s">
         <v>122</v>
       </c>
@@ -2535,8 +2535,8 @@
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="66"/>
       <c r="G26" s="27" t="s">
         <v>123</v>
       </c>
@@ -2548,118 +2548,118 @@
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="64">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6">
-      <c r="A28" s="61">
+      <c r="A28" s="62">
         <v>4.0999999999999996</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="65"/>
       <c r="G28" s="26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="63"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="65"/>
       <c r="G29" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="65"/>
       <c r="G30" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="65"/>
       <c r="G32" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="65"/>
       <c r="G33" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6">
-      <c r="A34" s="61">
+      <c r="A34" s="62">
         <v>4.2</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="65"/>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" ht="15.6">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="65"/>
       <c r="G35" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="65"/>
       <c r="G36" s="26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="63"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="65"/>
       <c r="G37" s="27" t="s">
         <v>120</v>
       </c>
@@ -2671,40 +2671,40 @@
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="63"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:7" ht="15.6">
-      <c r="A39" s="61">
+      <c r="A39" s="62">
         <v>5.0999999999999996</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="65"/>
       <c r="G39" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="63"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="65"/>
       <c r="G40" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="64"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="66"/>
     </row>
     <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="7">
@@ -2713,10 +2713,10 @@
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="61">
         <v>1</v>
       </c>
       <c r="G42" s="26" t="s">
@@ -2724,100 +2724,100 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="61">
+      <c r="A43" s="62">
         <v>6.1</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
       <c r="G43" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:7" ht="15.6">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="G45" s="26" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="61">
+      <c r="A46" s="62">
         <v>6.2</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
       <c r="G46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
       <c r="G47" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
       <c r="G48" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="61">
+      <c r="A49" s="62">
         <v>6.3</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
     </row>
     <row r="50" spans="1:7" ht="15.6">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="61"/>
       <c r="G50" s="26" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.9" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
       <c r="G51" s="26" t="s">
         <v>142</v>
       </c>
@@ -2829,8 +2829,8 @@
       <c r="B52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="61"/>
       <c r="G52" s="27" t="s">
         <v>143</v>
       </c>
@@ -2843,11 +2843,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D42:D52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
@@ -2863,6 +2858,11 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C14:C23"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
